--- a/all.xlsx
+++ b/all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL-main\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68E681-6ACC-4460-8A26-EC080C8AD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B018EE-70D4-4369-A5DC-F21653347ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>efl_err_#0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4799,7 +4807,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>#0</a:t>
+              <a:t>kd</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
@@ -7471,6 +7479,1320 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3BE9-4BCA-896D-F5A3D1387BCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_loss_#1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3053754970526201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2477347835613601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2158344429769299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1751430444656599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1356257147090401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.09872324907096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0664674362559201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0381460759290402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0015518513454702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9676137577955799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.94319181077799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9067534322191899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8902079975529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8559381027889801</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.83978748397462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.82107642046205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7964447660810601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.77893044386699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.76944468051764</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.75656226865804</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7427326896388</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7212037926266901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7066223332836301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6948877838766401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.67305972621699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6732510950914601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.66943122399081</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.65324149465864</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6443058191591</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6412968498886</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6317943372544199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.61995494061974</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.62239410391279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.60975592607145</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.61011877257353</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6102623962292999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6028329673086701</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5936479917757</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.58246314981181</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.57622299452496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.57438594140824</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5719969925607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5615526536467701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.56343071020332</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5520283963270201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5456067999456999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5431476694763</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5329080045602801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5335698735182399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.53163795866024</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.52125482270672</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5191688772979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5204185179084699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5177311054460501</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5060249931493299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.49642962331225</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.49581686858158</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.48480675630508</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4822491946493701</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4756255005575201</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.48210309872961</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4735213214424701</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.46744217842247</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4823421649872099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4768050939414099</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4692023354730701</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4862757799731601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4692037902819799</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4598197154938</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4536893830937101</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.45231555221946</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.44910086188346</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4464932589014601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.45269483973266</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4507969101523099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4433334853239099</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4396291022088099</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.43110476102039</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4351401655537299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4268909874994999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.43147071607553</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4265768695029399</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4265101639328399</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.42433314186752</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4228590400355601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.42332692358903</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.42075382827953</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4219374755385501</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.41753600471338</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4263831506109499</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4169026848616799</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4151428801238899</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4105932393651099</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.41061208506298</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4045475789695701</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4046748815828001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4007222128521799</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3914095049451101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3991146968428401</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4013880567186101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0962-44EB-BF38-71D2A2626956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.389999389648395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.430000305175696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.230003356933594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.650001525878906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>53.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.560001373291001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>47.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44.119998931884702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0962-44EB-BF38-71D2A2626956}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8809,15 +10131,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9111,10 +10433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9122,7 +10444,7 @@
     <col min="2" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9138,8 +10460,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9155,8 +10483,14 @@
       <c r="E2" s="1">
         <v>90.199996948242102</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>2.3053754970526201</v>
+      </c>
+      <c r="G2" s="1">
+        <v>89.970001220703097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9172,8 +10506,14 @@
       <c r="E3" s="1">
         <v>79.160003662109304</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1">
+        <v>2.2477347835613601</v>
+      </c>
+      <c r="G3" s="1">
+        <v>77.470001220703097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9189,8 +10529,14 @@
       <c r="E4" s="1">
         <v>73.620002746582003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>2.2158344429769299</v>
+      </c>
+      <c r="G4" s="1">
+        <v>75.139999389648395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9206,8 +10552,14 @@
       <c r="E5" s="1">
         <v>72.580001831054602</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>2.1751430444656599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>72.389999389648395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9223,8 +10575,14 @@
       <c r="E6" s="1">
         <v>70.449996948242102</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>2.1356257147090401</v>
+      </c>
+      <c r="G6" s="1">
+        <v>69.720001220703097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9240,8 +10598,14 @@
       <c r="E7" s="1">
         <v>67.870002746582003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>2.09872324907096</v>
+      </c>
+      <c r="G7" s="1">
+        <v>68.430000305175696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9257,8 +10621,14 @@
       <c r="E8" s="1">
         <v>66.819999694824205</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>2.0664674362559201</v>
+      </c>
+      <c r="G8" s="1">
+        <v>67.230003356933594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9274,8 +10644,14 @@
       <c r="E9" s="1">
         <v>65.800003051757798</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>2.0381460759290402</v>
+      </c>
+      <c r="G9" s="1">
+        <v>65.650001525878906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9291,8 +10667,14 @@
       <c r="E10" s="1">
         <v>64.330001831054602</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>2.0015518513454702</v>
+      </c>
+      <c r="G10" s="1">
+        <v>63.740001678466797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9308,8 +10690,14 @@
       <c r="E11" s="1">
         <v>62.549999237060497</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>1.9676137577955799</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61.759998321533203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9325,8 +10713,14 @@
       <c r="E12" s="1">
         <v>61.4799995422363</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1">
+        <v>1.94319181077799</v>
+      </c>
+      <c r="G12" s="1">
+        <v>60.700000762939403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9342,8 +10736,14 @@
       <c r="E13" s="1">
         <v>60.560001373291001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1">
+        <v>1.9067534322191899</v>
+      </c>
+      <c r="G13" s="1">
+        <v>60.330001831054602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9359,8 +10759,14 @@
       <c r="E14" s="1">
         <v>59.619998931884702</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1">
+        <v>1.8902079975529</v>
+      </c>
+      <c r="G14" s="1">
+        <v>60.349998474121001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9376,8 +10782,14 @@
       <c r="E15" s="1">
         <v>59.310001373291001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <v>1.8559381027889801</v>
+      </c>
+      <c r="G15" s="1">
+        <v>59.029998779296797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9393,8 +10805,14 @@
       <c r="E16" s="1">
         <v>59.590000152587798</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>1.83978748397462</v>
+      </c>
+      <c r="G16" s="1">
+        <v>59.610000610351499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9410,8 +10828,14 @@
       <c r="E17" s="1">
         <v>58.290000915527301</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>1.82107642046205</v>
+      </c>
+      <c r="G17" s="1">
+        <v>58.799999237060497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9427,8 +10851,14 @@
       <c r="E18" s="1">
         <v>57.220001220703097</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>1.7964447660810601</v>
+      </c>
+      <c r="G18" s="1">
+        <v>58.549999237060497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9444,8 +10874,14 @@
       <c r="E19" s="1">
         <v>56.529998779296797</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>1.77893044386699</v>
+      </c>
+      <c r="G19" s="1">
+        <v>57.819999694824197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9461,8 +10897,14 @@
       <c r="E20" s="1">
         <v>55.779998779296797</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>1.76944468051764</v>
+      </c>
+      <c r="G20" s="1">
+        <v>57.340000152587798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9478,8 +10920,14 @@
       <c r="E21" s="1">
         <v>55.259998321533203</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>1.75656226865804</v>
+      </c>
+      <c r="G21" s="1">
+        <v>56.659999847412102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9495,8 +10943,14 @@
       <c r="E22" s="1">
         <v>55.240001678466797</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>1.7427326896388</v>
+      </c>
+      <c r="G22" s="1">
+        <v>56.439998626708899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9512,8 +10966,14 @@
       <c r="E23" s="1">
         <v>55.020000457763601</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>1.7212037926266901</v>
+      </c>
+      <c r="G23" s="1">
+        <v>56.4799995422363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9529,8 +10989,14 @@
       <c r="E24" s="1">
         <v>54.110000610351499</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>1.7066223332836301</v>
+      </c>
+      <c r="G24" s="1">
+        <v>54.889999389648402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9546,8 +11012,14 @@
       <c r="E25" s="1">
         <v>53.369998931884702</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>1.6948877838766401</v>
+      </c>
+      <c r="G25" s="1">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9563,8 +11035,14 @@
       <c r="E26" s="1">
         <v>53.580001831054602</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>1.67305972621699</v>
+      </c>
+      <c r="G26" s="1">
+        <v>54.669998168945298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9580,8 +11058,14 @@
       <c r="E27" s="1">
         <v>52.909999847412102</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>1.6732510950914601</v>
+      </c>
+      <c r="G27" s="1">
+        <v>54.409999847412102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9597,8 +11081,14 @@
       <c r="E28" s="1">
         <v>53.720001220703097</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>1.66943122399081</v>
+      </c>
+      <c r="G28" s="1">
+        <v>55.340000152587798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9614,8 +11104,14 @@
       <c r="E29" s="1">
         <v>54.119998931884702</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>1.65324149465864</v>
+      </c>
+      <c r="G29" s="1">
+        <v>54.349998474121001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9631,8 +11127,14 @@
       <c r="E30" s="1">
         <v>54.659999847412102</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <v>1.6443058191591</v>
+      </c>
+      <c r="G30" s="1">
+        <v>54.209999084472599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9648,8 +11150,14 @@
       <c r="E31" s="1">
         <v>53.689998626708899</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <v>1.6412968498886</v>
+      </c>
+      <c r="G31" s="1">
+        <v>53.709999084472599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9665,8 +11173,14 @@
       <c r="E32" s="1">
         <v>52.990001678466797</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>1.6317943372544199</v>
+      </c>
+      <c r="G32" s="1">
+        <v>53.450000762939403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9682,8 +11196,14 @@
       <c r="E33" s="1">
         <v>52.840000152587798</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <v>1.61995494061974</v>
+      </c>
+      <c r="G33" s="1">
+        <v>52.889999389648402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9699,8 +11219,14 @@
       <c r="E34" s="1">
         <v>52.630001068115199</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1">
+        <v>1.62239410391279</v>
+      </c>
+      <c r="G34" s="1">
+        <v>53.319999694824197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9716,8 +11242,14 @@
       <c r="E35" s="1">
         <v>51.580001831054602</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1">
+        <v>1.60975592607145</v>
+      </c>
+      <c r="G35" s="1">
+        <v>52.450000762939403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9733,8 +11265,14 @@
       <c r="E36" s="1">
         <v>52.040000915527301</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1">
+        <v>1.61011877257353</v>
+      </c>
+      <c r="G36" s="1">
+        <v>52.909999847412102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9750,8 +11288,14 @@
       <c r="E37" s="1">
         <v>52.279998779296797</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="1">
+        <v>1.6102623962292999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>51.759998321533203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9767,8 +11311,14 @@
       <c r="E38" s="1">
         <v>52.150001525878899</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>1.6028329673086701</v>
+      </c>
+      <c r="G38" s="1">
+        <v>51.430000305175703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9784,8 +11334,14 @@
       <c r="E39" s="1">
         <v>52.369998931884702</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="1">
+        <v>1.5936479917757</v>
+      </c>
+      <c r="G39" s="1">
+        <v>51.029998779296797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9801,8 +11357,14 @@
       <c r="E40" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="1">
+        <v>1.58246314981181</v>
+      </c>
+      <c r="G40" s="1">
+        <v>50.889999389648402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9818,8 +11380,14 @@
       <c r="E41" s="1">
         <v>51.080001831054602</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="1">
+        <v>1.57622299452496</v>
+      </c>
+      <c r="G41" s="1">
+        <v>50.740001678466797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9835,8 +11403,14 @@
       <c r="E42" s="1">
         <v>51.860000610351499</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="1">
+        <v>1.57438594140824</v>
+      </c>
+      <c r="G42" s="1">
+        <v>50.110000610351499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9852,8 +11426,14 @@
       <c r="E43" s="1">
         <v>53.040000915527301</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="1">
+        <v>1.5719969925607</v>
+      </c>
+      <c r="G43" s="1">
+        <v>50.720001220703097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9869,8 +11449,14 @@
       <c r="E44" s="1">
         <v>53.939998626708899</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="1">
+        <v>1.5615526536467701</v>
+      </c>
+      <c r="G44" s="1">
+        <v>50.650001525878899</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9886,8 +11472,14 @@
       <c r="E45" s="1">
         <v>54.4799995422363</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="1">
+        <v>1.56343071020332</v>
+      </c>
+      <c r="G45" s="1">
+        <v>50.639999389648402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9903,8 +11495,14 @@
       <c r="E46" s="1">
         <v>55.709999084472599</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="1">
+        <v>1.5520283963270201</v>
+      </c>
+      <c r="G46" s="1">
+        <v>49.599998474121001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9920,8 +11518,14 @@
       <c r="E47" s="1">
         <v>58.279998779296797</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="1">
+        <v>1.5456067999456999</v>
+      </c>
+      <c r="G47" s="1">
+        <v>49.950000762939403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9937,8 +11541,14 @@
       <c r="E48" s="1">
         <v>58.439998626708899</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="1">
+        <v>1.5431476694763</v>
+      </c>
+      <c r="G48" s="1">
+        <v>49.970001220703097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9954,8 +11564,14 @@
       <c r="E49" s="1">
         <v>60.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="1">
+        <v>1.5329080045602801</v>
+      </c>
+      <c r="G49" s="1">
+        <v>49.270000457763601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9971,8 +11587,14 @@
       <c r="E50" s="1">
         <v>60.520000457763601</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="1">
+        <v>1.5335698735182399</v>
+      </c>
+      <c r="G50" s="1">
+        <v>49.580001831054602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9988,8 +11610,14 @@
       <c r="E51" s="1">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="1">
+        <v>1.53163795866024</v>
+      </c>
+      <c r="G51" s="1">
+        <v>49.569999694824197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10005,8 +11633,14 @@
       <c r="E52" s="1">
         <v>65.239997863769503</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="1">
+        <v>1.52125482270672</v>
+      </c>
+      <c r="G52" s="1">
+        <v>48.810001373291001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10022,8 +11656,14 @@
       <c r="E53" s="1">
         <v>67.819999694824205</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="1">
+        <v>1.5191688772979</v>
+      </c>
+      <c r="G53" s="1">
+        <v>48.669998168945298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10039,8 +11679,14 @@
       <c r="E54" s="1">
         <v>73.959999084472599</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="1">
+        <v>1.5204185179084699</v>
+      </c>
+      <c r="G54" s="1">
+        <v>49.049999237060497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10056,8 +11702,14 @@
       <c r="E55" s="1">
         <v>87.610000610351506</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="1">
+        <v>1.5177311054460501</v>
+      </c>
+      <c r="G55" s="1">
+        <v>50.200000762939403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10073,8 +11725,14 @@
       <c r="E56" s="1">
         <v>90.389999389648395</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="1">
+        <v>1.5060249931493299</v>
+      </c>
+      <c r="G56" s="1">
+        <v>48.619998931884702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10090,8 +11748,14 @@
       <c r="E57" s="1">
         <v>88.839996337890597</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="1">
+        <v>1.49642962331225</v>
+      </c>
+      <c r="G57" s="1">
+        <v>48.740001678466797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10107,8 +11771,14 @@
       <c r="E58" s="1">
         <v>88.839996337890597</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="1">
+        <v>1.49581686858158</v>
+      </c>
+      <c r="G58" s="1">
+        <v>48.560001373291001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10124,8 +11794,14 @@
       <c r="E59" s="1">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="1">
+        <v>1.48480675630508</v>
+      </c>
+      <c r="G59" s="1">
+        <v>48.599998474121001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10141,8 +11817,14 @@
       <c r="E60" s="1">
         <v>86.639999389648395</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="1">
+        <v>1.4822491946493701</v>
+      </c>
+      <c r="G60" s="1">
+        <v>47.939998626708899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10158,8 +11840,14 @@
       <c r="E61" s="1">
         <v>88.440002441406193</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="1">
+        <v>1.4756255005575201</v>
+      </c>
+      <c r="G61" s="1">
+        <v>47.700000762939403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10175,8 +11863,14 @@
       <c r="E62" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="1">
+        <v>1.48210309872961</v>
+      </c>
+      <c r="G62" s="1">
+        <v>48.240001678466797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10192,8 +11886,14 @@
       <c r="E63" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="1">
+        <v>1.4735213214424701</v>
+      </c>
+      <c r="G63" s="1">
+        <v>47.849998474121001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10209,8 +11909,14 @@
       <c r="E64" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="1">
+        <v>1.46744217842247</v>
+      </c>
+      <c r="G64" s="1">
+        <v>47.290000915527301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10226,8 +11932,14 @@
       <c r="E65" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="1">
+        <v>1.4823421649872099</v>
+      </c>
+      <c r="G65" s="1">
+        <v>48.090000152587798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10243,8 +11955,14 @@
       <c r="E66" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="1">
+        <v>1.4768050939414099</v>
+      </c>
+      <c r="G66" s="1">
+        <v>48.119998931884702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10260,8 +11978,14 @@
       <c r="E67" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="1">
+        <v>1.4692023354730701</v>
+      </c>
+      <c r="G67" s="1">
+        <v>47.840000152587798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10277,8 +12001,14 @@
       <c r="E68" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="1">
+        <v>1.4862757799731601</v>
+      </c>
+      <c r="G68" s="1">
+        <v>48.680000305175703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10294,8 +12024,14 @@
       <c r="E69" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="1">
+        <v>1.4692037902819799</v>
+      </c>
+      <c r="G69" s="1">
+        <v>47.659999847412102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10311,8 +12047,14 @@
       <c r="E70" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="1">
+        <v>1.4598197154938</v>
+      </c>
+      <c r="G70" s="1">
+        <v>47.029998779296797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10328,8 +12070,14 @@
       <c r="E71" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="1">
+        <v>1.4536893830937101</v>
+      </c>
+      <c r="G71" s="1">
+        <v>47.2299995422363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10345,8 +12093,14 @@
       <c r="E72" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="1">
+        <v>1.45231555221946</v>
+      </c>
+      <c r="G72" s="1">
+        <v>47.270000457763601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10362,8 +12116,14 @@
       <c r="E73" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="1">
+        <v>1.44910086188346</v>
+      </c>
+      <c r="G73" s="1">
+        <v>46.779998779296797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10379,8 +12139,14 @@
       <c r="E74" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="1">
+        <v>1.4464932589014601</v>
+      </c>
+      <c r="G74" s="1">
+        <v>46.849998474121001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10396,8 +12162,14 @@
       <c r="E75" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="1">
+        <v>1.45269483973266</v>
+      </c>
+      <c r="G75" s="1">
+        <v>46.819999694824197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10413,8 +12185,14 @@
       <c r="E76" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="1">
+        <v>1.4507969101523099</v>
+      </c>
+      <c r="G76" s="1">
+        <v>47.069999694824197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10430,8 +12208,14 @@
       <c r="E77" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="1">
+        <v>1.4433334853239099</v>
+      </c>
+      <c r="G77" s="1">
+        <v>46.349998474121001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10447,8 +12231,14 @@
       <c r="E78" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="1">
+        <v>1.4396291022088099</v>
+      </c>
+      <c r="G78" s="1">
+        <v>46.029998779296797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10464,8 +12254,14 @@
       <c r="E79" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="1">
+        <v>1.43110476102039</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45.490001678466797</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10481,8 +12277,14 @@
       <c r="E80" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="1">
+        <v>1.4351401655537299</v>
+      </c>
+      <c r="G80" s="1">
+        <v>45.680000305175703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10498,8 +12300,14 @@
       <c r="E81" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="1">
+        <v>1.4268909874994999</v>
+      </c>
+      <c r="G81" s="1">
+        <v>45.669998168945298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10515,8 +12323,14 @@
       <c r="E82" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="1">
+        <v>1.43147071607553</v>
+      </c>
+      <c r="G82" s="1">
+        <v>46.270000457763601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10532,8 +12346,14 @@
       <c r="E83" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="1">
+        <v>1.4265768695029399</v>
+      </c>
+      <c r="G83" s="1">
+        <v>45.610000610351499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10549,8 +12369,14 @@
       <c r="E84" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="1">
+        <v>1.4265101639328399</v>
+      </c>
+      <c r="G84" s="1">
+        <v>44.900001525878899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10566,8 +12392,14 @@
       <c r="E85" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="1">
+        <v>1.42433314186752</v>
+      </c>
+      <c r="G85" s="1">
+        <v>45.590000152587798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10583,8 +12415,14 @@
       <c r="E86" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="1">
+        <v>1.4228590400355601</v>
+      </c>
+      <c r="G86" s="1">
+        <v>45.200000762939403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10600,8 +12438,14 @@
       <c r="E87" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="1">
+        <v>1.42332692358903</v>
+      </c>
+      <c r="G87" s="1">
+        <v>45.409999847412102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10617,8 +12461,14 @@
       <c r="E88" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="1">
+        <v>1.42075382827953</v>
+      </c>
+      <c r="G88" s="1">
+        <v>45.130001068115199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10634,8 +12484,14 @@
       <c r="E89" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="1">
+        <v>1.4219374755385501</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45.299999237060497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10651,8 +12507,14 @@
       <c r="E90" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="1">
+        <v>1.41753600471338</v>
+      </c>
+      <c r="G90" s="1">
+        <v>45.099998474121001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10668,8 +12530,14 @@
       <c r="E91" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="1">
+        <v>1.4263831506109499</v>
+      </c>
+      <c r="G91" s="1">
+        <v>45.810001373291001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10685,8 +12553,14 @@
       <c r="E92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="1">
+        <v>1.4169026848616799</v>
+      </c>
+      <c r="G92" s="1">
+        <v>45.060001373291001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10702,8 +12576,14 @@
       <c r="E93" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="1">
+        <v>1.4151428801238899</v>
+      </c>
+      <c r="G93" s="1">
+        <v>44.450000762939403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10719,8 +12599,14 @@
       <c r="E94" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="1">
+        <v>1.4105932393651099</v>
+      </c>
+      <c r="G94" s="1">
+        <v>44.360000610351499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10736,8 +12622,14 @@
       <c r="E95" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="1">
+        <v>1.41061208506298</v>
+      </c>
+      <c r="G95" s="1">
+        <v>44.490001678466797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10753,8 +12645,14 @@
       <c r="E96" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="1">
+        <v>1.4045475789695701</v>
+      </c>
+      <c r="G96" s="1">
+        <v>44.200000762939403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10770,8 +12668,14 @@
       <c r="E97" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="1">
+        <v>1.4046748815828001</v>
+      </c>
+      <c r="G97" s="1">
+        <v>44.490001678466797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10787,8 +12691,14 @@
       <c r="E98" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="1">
+        <v>1.4007222128521799</v>
+      </c>
+      <c r="G98" s="1">
+        <v>44.430000305175703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10804,8 +12714,14 @@
       <c r="E99" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="1">
+        <v>1.3914095049451101</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44.040000915527301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10821,8 +12737,14 @@
       <c r="E100" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="1">
+        <v>1.3991146968428401</v>
+      </c>
+      <c r="G100" s="1">
+        <v>44.119998931884702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10838,8 +12760,14 @@
       <c r="E101" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="1">
+        <v>1.4013880567186101</v>
+      </c>
+      <c r="G101" s="1">
+        <v>44.119998931884702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10850,7 +12778,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10861,7 +12789,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10872,7 +12800,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10883,7 +12811,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10894,7 +12822,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10905,7 +12833,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10916,7 +12844,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10927,7 +12855,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10938,7 +12866,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10949,7 +12877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
